--- a/batch/tasks_setting.xlsx
+++ b/batch/tasks_setting.xlsx
@@ -1,43 +1,505 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowHeight="13860"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+  <si>
+    <t>Video File</t>
+  </si>
+  <si>
+    <t>Source Language</t>
+  </si>
+  <si>
+    <t>Target Language</t>
+  </si>
+  <si>
+    <t>Dubbing</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QpS0mty5_DU</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H8Ln65PQJ6A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HLaqs6Vh1Y8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=43PFy9okevw&amp;list=PLipLTGfSGq9F0k5UO3x_AUbiVvR1ENLyp</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aeN6XVIPLKk&amp;list=PLipLTGfSGq9F0k5UO3x_AUbiVvR1ENLyp&amp;index=2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hKu0uokn9wk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1B5fQ8nrlXo&amp;t=483s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Eo9lfkmKMs0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ff_21w1-Er8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z3HD8TbRYvc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0039f6bDE-8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FnToeYzXA0I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_ncopq3j38g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FLfoFNxQRpw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=t0KIDFhpLUU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CTk6ShoIV-4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hHv43l_f6TM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=is4EmF-Laa0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bSDox26-YNk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TKQj9cF33-s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Nc8XWCOrfv0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=S_OvEqGWjx0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RlXBMhAjen8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ObXd2ZEm9_s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zqbetmEecXM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Hi8ybuOeFMA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,93 +508,332 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,129 +1116,296 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="92.2980769230769" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Video File</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Source Language</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Target Language</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dubbing</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=QpS0mty5_DU</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Error: Unhandled exception - Number of videos found is not unique. Please check. Number of videos found: 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=H8Ln65PQJ6A</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Error: Unhandled exception - Number of videos found is not unique. Please check. Number of videos found: 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=HLaqs6Vh1Y8</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Error: Unhandled exception - Number of videos found is not unique. Please check. Number of videos found: 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=43PFy9okevw&amp;list=PLipLTGfSGq9F0k5UO3x_AUbiVvR1ENLyp</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Error: Unhandled exception - Number of videos found is not unique. Please check. Number of videos found: 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=aeN6XVIPLKk&amp;list=PLipLTGfSGq9F0k5UO3x_AUbiVvR1ENLyp&amp;index=2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Error: Unhandled exception - Number of videos found is not unique. Please check. Number of videos found: 0</t>
-        </is>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/batch/tasks_setting.xlsx
+++ b/batch/tasks_setting.xlsx
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Error: Unhandled exception - Number of videos found is not unique. Please check. Number of videos found: 2</t>
+          <t>Error: 📝 Summarizing and translating - Still failed after 3 attempts: Error code: 504 - {'code': 50501, 'message': 'Model service timeout. Please try again later.', 'data': None}</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Error: Unhandled exception - Number of videos found is not unique. Please check. Number of videos found: 3</t>
+          <t>Error: 🎙️ Transcribing with Whisper - Expecting value: line 1 column 1 (char 0)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Error: Unhandled exception - Number of videos found is not unique. Please check. Number of videos found: 3</t>
+          <t>Error: 🗣️ Generating audio - Command '['ffmpeg', '-i', 'output/audio/tmp/337_0_temp.wav', '-filter:a', 'atempo=-0.007', '-y', 'output/audio/segs/337_0.wav']' returned non-zero exit status 222.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -1164,7 +1164,11 @@
       <c r="D40" t="n">
         <v>1</v>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Error: 🗣️ Generating audio - Command '['ffmpeg', '-i', 'output/audio/tmp/337_0_temp.wav', '-filter:a', 'atempo=-0.007', '-y', 'output/audio/segs/337_0.wav']' returned non-zero exit status 222.</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">

--- a/batch/tasks_setting.xlsx
+++ b/batch/tasks_setting.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Error: 📝 Summarizing and translating - Still failed after 3 attempts: Error code: 504 - {'code': 50501, 'message': 'Model service timeout. Please try again later.', 'data': None}</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Error: 🎙️ Transcribing with Whisper - Expecting value: line 1 column 1 (char 0)</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Error: 🗣️ Generating audio - Command '['ffmpeg', '-i', 'output/audio/tmp/337_0_temp.wav', '-filter:a', 'atempo=-0.007', '-y', 'output/audio/segs/337_0.wav']' returned non-zero exit status 222.</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Error: 🗣️ Generating audio - Command '['ffmpeg', '-i', 'output/audio/tmp/337_0_temp.wav', '-filter:a', 'atempo=-0.007', '-y', 'output/audio/segs/337_0.wav']' returned non-zero exit status 222.</t>
+          <t>Done</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -1182,7 +1182,11 @@
       <c r="D41" t="n">
         <v>1</v>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -1196,7 +1200,11 @@
       <c r="D42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1210,7 +1218,11 @@
       <c r="D43" t="n">
         <v>1</v>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -1224,7 +1236,11 @@
       <c r="D44" t="n">
         <v>1</v>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -1238,7 +1254,11 @@
       <c r="D45" t="n">
         <v>1</v>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -1252,7 +1272,11 @@
       <c r="D46" t="n">
         <v>1</v>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -1266,7 +1290,11 @@
       <c r="D47" t="n">
         <v>1</v>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -1280,7 +1308,11 @@
       <c r="D48" t="n">
         <v>1</v>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -1294,8 +1326,342 @@
       <c r="D49" t="n">
         <v>1</v>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=70y6hMyRZfQ&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=25&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=eHiqrRloaGc&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=28&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Kp61Z_TKJFk&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=31&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=p6WfKfrLhdQ&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=34&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=pswBnrF5Z5Y&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=37&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=PUscmv4YqMU&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=42&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=viY5RFtIjo0&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=46&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Z4EpFOmyf_g&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=49&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=K1ipCo_KCdI&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=55&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=gunJ_nYCe4k&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=59&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ZYfAO1VJ0r8&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=63&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=5-Hi6SXvrgU&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=67&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=NALYks6kRM0&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=71&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=AFvQjxICn3E&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=75&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=aNPW8VA8wBo&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=79&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=F5jyrHQff9w&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=82&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=hKVpdmjvGRA&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=86&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=8OLHwss-D20&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=90&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=eSs9wOgLTWE&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=94&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=7d5Vs-ha1XU&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=97&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=QFkk5cN91B0&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=100&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=gQQG8KK5gQU&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=105&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=2uj0bE7yQhw&amp;list=PLipLTGfSGq9EZDjrAi7VnUf7loK35l19x&amp;index=109&amp;pp=iAQB</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
